--- a/data/trans_dic/P9_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>30,98%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,31; 36,44</t>
+          <t>19,56; 39,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 43,38</t>
+          <t>21,55; 40,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,73; 30,83</t>
+          <t>23,48; 40,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,36; 37,41</t>
+          <t>23,9; 39,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 31,47</t>
+          <t>23,0; 36,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,35; 37,18</t>
+          <t>25,3; 36,66</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>51,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>52,25%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,29</t>
+          <t>44,12; 58,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,69; 54,34</t>
+          <t>45,26; 58,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,79; 52,32</t>
+          <t>45,08; 56,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 56,81</t>
+          <t>46,78; 57,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,48; 52,33</t>
+          <t>46,6; 56,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,82; 54,38</t>
+          <t>48,17; 56,46</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>70,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,63%</t>
+          <t>72,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>71,62%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,56; 75,92</t>
+          <t>66,3; 79,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63,77; 75,81</t>
+          <t>64,49; 77,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,02; 71,48</t>
+          <t>64,35; 75,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,17; 74,02</t>
+          <t>66,76; 77,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,14; 72,75</t>
+          <t>66,94; 76,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,75; 73,08</t>
+          <t>67,14; 75,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>49,34%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,84; 55,89</t>
+          <t>47,43; 54,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,06; 56,1</t>
+          <t>45,43; 56,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,22; 51,14</t>
+          <t>41,3; 48,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,62; 55,32</t>
+          <t>43,38; 52,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 52,7</t>
+          <t>45,8; 50,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,39; 54,81</t>
+          <t>46,23; 52,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49,9; 55,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49,69; 56,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46,23; 51,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49,66; 55,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48,58; 52,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>50,8; 55,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>65652</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>102000</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80393</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>133708</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>146045</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>235708</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44311; 90164</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73096; 135740</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>61433; 104920</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100770; 165677</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>112307; 179036</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>192533; 278933</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>335735</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>483192</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>363418</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>526517</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>699153</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1009710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>287144; 378227</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>422092; 541753</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>322384; 404541</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>467761; 577427</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>636519; 765279</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>930854; 1091029</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>333755</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>508470</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>372632</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>554966</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>706388</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1063436</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>302107; 364457</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>461502; 552815</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>342157; 400920</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>513511; 594149</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>660988; 750638</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>996911; 1121644</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>848.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>505.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1086839</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>738467</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>938450</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>672915</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2025289</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1411381</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1002861; 1161343</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>662055; 818605</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>863019; 1005224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>608799; 731124</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1925487; 2135943</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1322392; 1512315</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>738.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1538.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1821981</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1832129</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1754894</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1888106</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3576874</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3720235</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1720188; 1924625</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1711705; 1949850</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1663497; 1851990</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1785080; 1977777</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3422707; 3709083</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3576033; 3877536</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>